--- a/input/Template_EMIS_Access_PTR.xlsx
+++ b/input/Template_EMIS_Access_PTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/PiN_app_dev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FAA030-F0D2-4EEE-8E07-9FFBC6414A84}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB93B9E7-FCAA-4092-9779-2202E5EB6006}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="3" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
